--- a/static/purchases/purchaseHistory.xlsx
+++ b/static/purchases/purchaseHistory.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -28,28 +28,37 @@
     <t>Country</t>
   </si>
   <si>
+    <t>Vat Number</t>
+  </si>
+  <si>
     <t>2021-03-22</t>
   </si>
   <si>
+    <t>example company</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>10191882</t>
+  </si>
+  <si>
+    <t>different company</t>
+  </si>
+  <si>
+    <t>10195882</t>
+  </si>
+  <si>
+    <t>random company</t>
+  </si>
+  <si>
+    <t>10194882</t>
+  </si>
+  <si>
     <t>new company</t>
   </si>
   <si>
-    <t>United Kingdom</t>
-  </si>
-  <si>
-    <t>example company</t>
-  </si>
-  <si>
-    <t>random company</t>
-  </si>
-  <si>
-    <t>different company</t>
-  </si>
-  <si>
-    <t>2021-04-20</t>
-  </si>
-  <si>
-    <t>Owain</t>
+    <t>10131882</t>
   </si>
 </sst>
 </file>
@@ -381,13 +390,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -400,159 +409,178 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2">
-        <v>2500</v>
+        <v>950</v>
       </c>
       <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>99500</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>16000</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>2800</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6">
+        <v>4500</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3">
-        <v>950</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4">
-        <v>3950</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5">
-        <v>24500</v>
-      </c>
-      <c r="D5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6">
-        <v>30000</v>
-      </c>
-      <c r="D6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
       </c>
       <c r="C7">
         <v>15000</v>
       </c>
       <c r="D7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>7</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C8">
-        <v>4500</v>
+        <v>30000</v>
       </c>
       <c r="D8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C9">
-        <v>2800</v>
+        <v>24500</v>
       </c>
       <c r="D9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>7</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C10">
-        <v>16000</v>
+        <v>3950</v>
       </c>
       <c r="D10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>7</v>
+      </c>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C11">
-        <v>99500</v>
+        <v>2500</v>
       </c>
       <c r="D11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12">
-        <v>950</v>
-      </c>
-      <c r="D12" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/static/purchases/purchaseHistory.xlsx
+++ b/static/purchases/purchaseHistory.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="21">
   <si>
     <t>Date</t>
   </si>
@@ -31,13 +31,31 @@
     <t>Vat Number</t>
   </si>
   <si>
+    <t>2021-04-23</t>
+  </si>
+  <si>
+    <t>Owain Lansdowne</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>11111111111111111111</t>
+  </si>
+  <si>
+    <t>Image Optim</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Owain</t>
+  </si>
+  <si>
     <t>2021-03-22</t>
   </si>
   <si>
     <t>example company</t>
-  </si>
-  <si>
-    <t>United Kingdom</t>
   </si>
   <si>
     <t>10191882</t>
@@ -390,7 +408,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -421,7 +439,7 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>950</v>
+        <v>400</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -438,7 +456,7 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>99500</v>
+        <v>15000</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -452,112 +470,109 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C4">
-        <v>16000</v>
+        <v>159500</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C5">
-        <v>2800</v>
+        <v>15000</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C6">
-        <v>4500</v>
+        <v>30000</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C7">
-        <v>15000</v>
+        <v>24500</v>
       </c>
       <c r="D7" t="s">
         <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C8">
-        <v>30000</v>
+        <v>3950</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C9">
-        <v>24500</v>
+        <v>2500</v>
       </c>
       <c r="D9" t="s">
         <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
       </c>
       <c r="C10">
-        <v>3950</v>
+        <v>950</v>
       </c>
       <c r="D10" t="s">
         <v>7</v>
@@ -568,19 +583,70 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C11">
-        <v>2500</v>
+        <v>99500</v>
       </c>
       <c r="D11" t="s">
         <v>7</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12">
+        <v>16000</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13">
+        <v>2800</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14">
+        <v>4500</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/static/purchases/purchaseHistory.xlsx
+++ b/static/purchases/purchaseHistory.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="17">
   <si>
     <t>Date</t>
   </si>
@@ -34,22 +34,10 @@
     <t>2021-04-23</t>
   </si>
   <si>
-    <t>Owain Lansdowne</t>
+    <t>Owain</t>
   </si>
   <si>
     <t>United Kingdom</t>
-  </si>
-  <si>
-    <t>11111111111111111111</t>
-  </si>
-  <si>
-    <t>Image Optim</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>Owain</t>
   </si>
   <si>
     <t>2021-03-22</t>
@@ -408,7 +396,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -439,13 +427,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>400</v>
+        <v>16500</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -453,7 +438,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>15000</v>
@@ -461,152 +446,152 @@
       <c r="D3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C4">
-        <v>159500</v>
+        <v>950</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>99500</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
         <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5">
-        <v>15000</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>16000</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
         <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6">
-        <v>30000</v>
-      </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C7">
-        <v>24500</v>
+        <v>2800</v>
       </c>
       <c r="D7" t="s">
         <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C8">
-        <v>3950</v>
+        <v>4500</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C9">
-        <v>2500</v>
+        <v>15000</v>
       </c>
       <c r="D9" t="s">
         <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10">
+        <v>30000</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" t="s">
         <v>12</v>
-      </c>
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10">
-        <v>950</v>
-      </c>
-      <c r="D10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C11">
-        <v>99500</v>
+        <v>24500</v>
       </c>
       <c r="D11" t="s">
         <v>7</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
       </c>
       <c r="C12">
-        <v>16000</v>
+        <v>3950</v>
       </c>
       <c r="D12" t="s">
         <v>7</v>
@@ -617,36 +602,19 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C13">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="D13" t="s">
         <v>7</v>
       </c>
       <c r="E13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14">
-        <v>4500</v>
-      </c>
-      <c r="D14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/static/purchases/purchaseHistory.xlsx
+++ b/static/purchases/purchaseHistory.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="17">
   <si>
     <t>Date</t>
   </si>
@@ -31,13 +31,19 @@
     <t>Vat Number</t>
   </si>
   <si>
+    <t>2021-04-23</t>
+  </si>
+  <si>
+    <t>Owain</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
     <t>2021-03-22</t>
   </si>
   <si>
     <t>example company</t>
-  </si>
-  <si>
-    <t>United Kingdom</t>
   </si>
   <si>
     <t>10191882</t>
@@ -390,7 +396,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -421,13 +427,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>950</v>
+        <v>15000</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -435,27 +438,24 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C3">
-        <v>99500</v>
+        <v>16500</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
       <c r="C4">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -466,13 +466,13 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5">
-        <v>2800</v>
+        <v>30000</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -483,13 +483,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
       </c>
       <c r="C6">
-        <v>4500</v>
+        <v>24500</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -500,87 +500,121 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C7">
-        <v>15000</v>
+        <v>3950</v>
       </c>
       <c r="D7" t="s">
         <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C8">
-        <v>30000</v>
+        <v>2500</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C9">
-        <v>24500</v>
+        <v>950</v>
       </c>
       <c r="D9" t="s">
         <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C10">
-        <v>3950</v>
+        <v>99500</v>
       </c>
       <c r="D10" t="s">
         <v>7</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>16000</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
         <v>13</v>
       </c>
-      <c r="C11">
-        <v>2500</v>
-      </c>
-      <c r="D11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="C12">
+        <v>2800</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13">
+        <v>4500</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/static/purchases/purchaseHistory.xlsx
+++ b/static/purchases/purchaseHistory.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="18">
   <si>
     <t>Date</t>
   </si>
@@ -31,13 +31,16 @@
     <t>Vat Number</t>
   </si>
   <si>
+    <t>2021-04-25</t>
+  </si>
+  <si>
+    <t>Owain</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
     <t>2021-04-23</t>
-  </si>
-  <si>
-    <t>Owain</t>
-  </si>
-  <si>
-    <t>United Kingdom</t>
   </si>
   <si>
     <t>2021-03-22</t>
@@ -396,7 +399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -427,7 +430,7 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>15000</v>
+        <v>255000</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -435,7 +438,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -452,7 +455,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C4">
         <v>15000</v>
@@ -460,161 +463,175 @@
       <c r="D4" t="s">
         <v>7</v>
       </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>950</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
         <v>11</v>
-      </c>
-      <c r="C5">
-        <v>30000</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>99500</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
         <v>13</v>
-      </c>
-      <c r="C6">
-        <v>24500</v>
-      </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C7">
-        <v>3950</v>
+        <v>16000</v>
       </c>
       <c r="D7" t="s">
         <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8">
+        <v>2800</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
         <v>15</v>
-      </c>
-      <c r="C8">
-        <v>2500</v>
-      </c>
-      <c r="D8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C9">
-        <v>950</v>
+        <v>4500</v>
       </c>
       <c r="D9" t="s">
         <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>15000</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" t="s">
         <v>11</v>
-      </c>
-      <c r="C10">
-        <v>99500</v>
-      </c>
-      <c r="D10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C11">
-        <v>16000</v>
+        <v>30000</v>
       </c>
       <c r="D11" t="s">
         <v>7</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C12">
-        <v>2800</v>
+        <v>24500</v>
       </c>
       <c r="D12" t="s">
         <v>7</v>
       </c>
       <c r="E12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C13">
-        <v>4500</v>
+        <v>3950</v>
       </c>
       <c r="D13" t="s">
         <v>7</v>
       </c>
       <c r="E13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
         <v>16</v>
+      </c>
+      <c r="C14">
+        <v>2500</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/static/purchases/purchaseHistory.xlsx
+++ b/static/purchases/purchaseHistory.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="20">
   <si>
     <t>Date</t>
   </si>
@@ -40,34 +40,40 @@
     <t>United Kingdom</t>
   </si>
   <si>
-    <t>2021-04-23</t>
-  </si>
-  <si>
     <t>2021-03-22</t>
   </si>
   <si>
+    <t>different company</t>
+  </si>
+  <si>
+    <t>United States of America</t>
+  </si>
+  <si>
+    <t>10195882</t>
+  </si>
+  <si>
+    <t>random company</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>10194882</t>
+  </si>
+  <si>
+    <t>new company</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>10131882</t>
+  </si>
+  <si>
     <t>example company</t>
   </si>
   <si>
     <t>10191882</t>
-  </si>
-  <si>
-    <t>different company</t>
-  </si>
-  <si>
-    <t>10195882</t>
-  </si>
-  <si>
-    <t>random company</t>
-  </si>
-  <si>
-    <t>10194882</t>
-  </si>
-  <si>
-    <t>new company</t>
-  </si>
-  <si>
-    <t>10131882</t>
   </si>
 </sst>
 </file>
@@ -399,7 +405,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -430,7 +436,7 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>255000</v>
+        <v>950</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -441,13 +447,16 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C3">
-        <v>16500</v>
+        <v>30000</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -455,183 +464,152 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C4">
-        <v>15000</v>
+        <v>2800</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C5">
-        <v>950</v>
+        <v>4500</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C6">
-        <v>99500</v>
+        <v>950</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
       <c r="C7">
-        <v>16000</v>
+        <v>99500</v>
       </c>
       <c r="D7" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
       <c r="C8">
-        <v>2800</v>
+        <v>16000</v>
       </c>
       <c r="D8" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C9">
-        <v>4500</v>
+        <v>24500</v>
       </c>
       <c r="D9" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C10">
-        <v>15000</v>
+        <v>3950</v>
       </c>
       <c r="D10" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C11">
-        <v>30000</v>
+        <v>2500</v>
       </c>
       <c r="D11" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C12">
-        <v>24500</v>
+        <v>15000</v>
       </c>
       <c r="D12" t="s">
         <v>7</v>
       </c>
       <c r="E12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13">
-        <v>3950</v>
-      </c>
-      <c r="D13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14">
-        <v>2500</v>
-      </c>
-      <c r="D14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/static/purchases/purchaseHistory.xlsx
+++ b/static/purchases/purchaseHistory.xlsx
@@ -31,7 +31,7 @@
     <t>Vat Number</t>
   </si>
   <si>
-    <t>2021-04-23</t>
+    <t>2021-04-26</t>
   </si>
   <si>
     <t>Owain</t>
@@ -427,7 +427,7 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>15000</v>
+        <v>950</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -441,7 +441,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>16500</v>
+        <v>950</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>

--- a/static/purchases/purchaseHistory.xlsx
+++ b/static/purchases/purchaseHistory.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="18">
   <si>
     <t>Date</t>
   </si>
@@ -31,40 +31,43 @@
     <t>Vat Number</t>
   </si>
   <si>
-    <t>2021-04-26</t>
-  </si>
-  <si>
-    <t>Owain</t>
+    <t>2021-03-22</t>
+  </si>
+  <si>
+    <t>random company</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>10194882</t>
+  </si>
+  <si>
+    <t>new company</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>10131882</t>
+  </si>
+  <si>
+    <t>example company</t>
   </si>
   <si>
     <t>United Kingdom</t>
   </si>
   <si>
-    <t>2021-03-22</t>
-  </si>
-  <si>
-    <t>example company</t>
-  </si>
-  <si>
     <t>10191882</t>
   </si>
   <si>
     <t>different company</t>
   </si>
   <si>
+    <t>United States of America</t>
+  </si>
+  <si>
     <t>10195882</t>
-  </si>
-  <si>
-    <t>random company</t>
-  </si>
-  <si>
-    <t>10194882</t>
-  </si>
-  <si>
-    <t>new company</t>
-  </si>
-  <si>
-    <t>10131882</t>
   </si>
 </sst>
 </file>
@@ -396,7 +399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -427,194 +430,166 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>950</v>
+        <v>2800</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
       </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C3">
-        <v>950</v>
+        <v>4500</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C4">
-        <v>15000</v>
+        <v>950</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C5">
-        <v>30000</v>
+        <v>99500</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C6">
-        <v>24500</v>
+        <v>16000</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C7">
-        <v>3950</v>
+        <v>24500</v>
       </c>
       <c r="D7" t="s">
         <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C8">
-        <v>2500</v>
+        <v>3950</v>
       </c>
       <c r="D8" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
       <c r="C9">
-        <v>950</v>
+        <v>2500</v>
       </c>
       <c r="D9" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C10">
-        <v>99500</v>
+        <v>15000</v>
       </c>
       <c r="D10" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C11">
-        <v>16000</v>
+        <v>30000</v>
       </c>
       <c r="D11" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12">
-        <v>2800</v>
-      </c>
-      <c r="D12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13">
-        <v>4500</v>
-      </c>
-      <c r="D13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/static/purchases/purchaseHistory.xlsx
+++ b/static/purchases/purchaseHistory.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="22">
   <si>
     <t>Date</t>
   </si>
@@ -31,6 +31,21 @@
     <t>Vat Number</t>
   </si>
   <si>
+    <t>2021-04-27</t>
+  </si>
+  <si>
+    <t>Owain</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>11111111</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>2021-03-22</t>
   </si>
   <si>
@@ -53,9 +68,6 @@
   </si>
   <si>
     <t>example company</t>
-  </si>
-  <si>
-    <t>United Kingdom</t>
   </si>
   <si>
     <t>10191882</t>
@@ -399,7 +411,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -430,13 +442,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>2800</v>
+        <v>9500</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -444,16 +453,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C3">
-        <v>4500</v>
+        <v>9500</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -461,16 +467,13 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C4">
-        <v>950</v>
+        <v>9500</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -478,16 +481,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C5">
-        <v>99500</v>
+        <v>9500</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -495,16 +495,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C6">
-        <v>16000</v>
+        <v>9500</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -515,13 +512,10 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>24500</v>
+        <v>9500</v>
       </c>
       <c r="D7" t="s">
         <v>7</v>
-      </c>
-      <c r="E7" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -529,16 +523,13 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C8">
-        <v>3950</v>
+        <v>950</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -546,16 +537,13 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C9">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -563,16 +551,13 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C10">
         <v>15000</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -580,16 +565,410 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11">
+        <v>12500</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12">
+        <v>9500</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13">
+        <v>24500</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14">
+        <v>24500</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15">
+        <v>9500</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16">
+        <v>9500</v>
+      </c>
+      <c r="D16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
+        <v>9500</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18">
+        <v>9500</v>
+      </c>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19">
+        <v>4000</v>
+      </c>
+      <c r="D19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20">
+        <v>950</v>
+      </c>
+      <c r="D20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21">
+        <v>4000</v>
+      </c>
+      <c r="D21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22">
+        <v>4000</v>
+      </c>
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23">
+        <v>4000</v>
+      </c>
+      <c r="D23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24">
+        <v>25000</v>
+      </c>
+      <c r="D24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25">
+        <v>25000</v>
+      </c>
+      <c r="D25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26">
+        <v>25000</v>
+      </c>
+      <c r="D26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27">
+        <v>25000</v>
+      </c>
+      <c r="D27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28">
+        <v>2800</v>
+      </c>
+      <c r="D28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29">
+        <v>4500</v>
+      </c>
+      <c r="D29" t="s">
         <v>15</v>
       </c>
-      <c r="C11">
+      <c r="E29" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30">
+        <v>950</v>
+      </c>
+      <c r="D30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31">
+        <v>99500</v>
+      </c>
+      <c r="D31" t="s">
+        <v>20</v>
+      </c>
+      <c r="E31" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32">
+        <v>16000</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33">
+        <v>24500</v>
+      </c>
+      <c r="D33" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34">
+        <v>3950</v>
+      </c>
+      <c r="D34" t="s">
+        <v>15</v>
+      </c>
+      <c r="E34" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35">
+        <v>2500</v>
+      </c>
+      <c r="D35" t="s">
+        <v>15</v>
+      </c>
+      <c r="E35" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36">
+        <v>15000</v>
+      </c>
+      <c r="D36" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37">
         <v>30000</v>
       </c>
-      <c r="D11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" t="s">
-        <v>17</v>
+      <c r="D37" t="s">
+        <v>20</v>
+      </c>
+      <c r="E37" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/static/purchases/purchaseHistory.xlsx
+++ b/static/purchases/purchaseHistory.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="18">
   <si>
     <t>Date</t>
   </si>
@@ -31,43 +31,31 @@
     <t>Vat Number</t>
   </si>
   <si>
-    <t>2021-04-27</t>
-  </si>
-  <si>
-    <t>Owain</t>
+    <t>2021-03-22</t>
+  </si>
+  <si>
+    <t>random company</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>10194882</t>
+  </si>
+  <si>
+    <t>new company</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>10131882</t>
+  </si>
+  <si>
+    <t>example company</t>
   </si>
   <si>
     <t>United Kingdom</t>
-  </si>
-  <si>
-    <t>11111111</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2021-03-22</t>
-  </si>
-  <si>
-    <t>random company</t>
-  </si>
-  <si>
-    <t>Switzerland</t>
-  </si>
-  <si>
-    <t>10194882</t>
-  </si>
-  <si>
-    <t>new company</t>
-  </si>
-  <si>
-    <t>France</t>
-  </si>
-  <si>
-    <t>10131882</t>
-  </si>
-  <si>
-    <t>example company</t>
   </si>
   <si>
     <t>10191882</t>
@@ -411,7 +399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -442,24 +430,30 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>9500</v>
+        <v>2800</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
       </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C3">
-        <v>9500</v>
+        <v>4500</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -467,13 +461,16 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C4">
-        <v>9500</v>
+        <v>950</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -481,13 +478,16 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C5">
-        <v>9500</v>
+        <v>99500</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -495,13 +495,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C6">
-        <v>9500</v>
+        <v>16000</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -512,24 +515,30 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>9500</v>
+        <v>24500</v>
       </c>
       <c r="D7" t="s">
         <v>7</v>
       </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C8">
-        <v>950</v>
+        <v>3950</v>
       </c>
       <c r="D8" t="s">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -537,13 +546,16 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C9">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="D9" t="s">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -551,13 +563,16 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C10">
         <v>15000</v>
       </c>
       <c r="D10" t="s">
-        <v>7</v>
+        <v>13</v>
+      </c>
+      <c r="E10" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -565,410 +580,16 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C11">
-        <v>12500</v>
+        <v>30000</v>
       </c>
       <c r="D11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12">
-        <v>9500</v>
-      </c>
-      <c r="D12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
-        <v>24500</v>
-      </c>
-      <c r="D13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14">
-        <v>24500</v>
-      </c>
-      <c r="D14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15">
-        <v>9500</v>
-      </c>
-      <c r="D15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16">
-        <v>9500</v>
-      </c>
-      <c r="D16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17">
-        <v>9500</v>
-      </c>
-      <c r="D17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18">
-        <v>9500</v>
-      </c>
-      <c r="D18" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19">
-        <v>4000</v>
-      </c>
-      <c r="D19" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20">
-        <v>950</v>
-      </c>
-      <c r="D20" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21">
-        <v>4000</v>
-      </c>
-      <c r="D21" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22">
-        <v>4000</v>
-      </c>
-      <c r="D22" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23">
-        <v>4000</v>
-      </c>
-      <c r="D23" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24">
-        <v>25000</v>
-      </c>
-      <c r="D24" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25">
-        <v>25000</v>
-      </c>
-      <c r="D25" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" t="s">
-        <v>5</v>
-      </c>
-      <c r="B26" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26">
-        <v>25000</v>
-      </c>
-      <c r="D26" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" t="s">
-        <v>5</v>
-      </c>
-      <c r="B27" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27">
-        <v>25000</v>
-      </c>
-      <c r="D27" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B28" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28">
-        <v>2800</v>
-      </c>
-      <c r="D28" t="s">
-        <v>12</v>
-      </c>
-      <c r="E28" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" t="s">
-        <v>10</v>
-      </c>
-      <c r="B29" t="s">
-        <v>14</v>
-      </c>
-      <c r="C29">
-        <v>4500</v>
-      </c>
-      <c r="D29" t="s">
-        <v>15</v>
-      </c>
-      <c r="E29" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" t="s">
-        <v>10</v>
-      </c>
-      <c r="B30" t="s">
+      <c r="E11" t="s">
         <v>17</v>
-      </c>
-      <c r="C30">
-        <v>950</v>
-      </c>
-      <c r="D30" t="s">
-        <v>7</v>
-      </c>
-      <c r="E30" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" t="s">
-        <v>10</v>
-      </c>
-      <c r="B31" t="s">
-        <v>19</v>
-      </c>
-      <c r="C31">
-        <v>99500</v>
-      </c>
-      <c r="D31" t="s">
-        <v>20</v>
-      </c>
-      <c r="E31" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" t="s">
-        <v>10</v>
-      </c>
-      <c r="B32" t="s">
-        <v>19</v>
-      </c>
-      <c r="C32">
-        <v>16000</v>
-      </c>
-      <c r="D32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" t="s">
-        <v>10</v>
-      </c>
-      <c r="B33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C33">
-        <v>24500</v>
-      </c>
-      <c r="D33" t="s">
-        <v>12</v>
-      </c>
-      <c r="E33" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" t="s">
-        <v>10</v>
-      </c>
-      <c r="B34" t="s">
-        <v>14</v>
-      </c>
-      <c r="C34">
-        <v>3950</v>
-      </c>
-      <c r="D34" t="s">
-        <v>15</v>
-      </c>
-      <c r="E34" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" t="s">
-        <v>10</v>
-      </c>
-      <c r="B35" t="s">
-        <v>14</v>
-      </c>
-      <c r="C35">
-        <v>2500</v>
-      </c>
-      <c r="D35" t="s">
-        <v>15</v>
-      </c>
-      <c r="E35" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" t="s">
-        <v>10</v>
-      </c>
-      <c r="B36" t="s">
-        <v>17</v>
-      </c>
-      <c r="C36">
-        <v>15000</v>
-      </c>
-      <c r="D36" t="s">
-        <v>7</v>
-      </c>
-      <c r="E36" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" t="s">
-        <v>10</v>
-      </c>
-      <c r="B37" t="s">
-        <v>19</v>
-      </c>
-      <c r="C37">
-        <v>30000</v>
-      </c>
-      <c r="D37" t="s">
-        <v>20</v>
-      </c>
-      <c r="E37" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/static/purchases/purchaseHistory.xlsx
+++ b/static/purchases/purchaseHistory.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="36">
   <si>
     <t>Date</t>
   </si>
@@ -31,9 +31,54 @@
     <t>Vat Number</t>
   </si>
   <si>
+    <t>2021-04-30</t>
+  </si>
+  <si>
+    <t>Owain</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>2021-04-29</t>
+  </si>
+  <si>
+    <t>2021-04-28</t>
+  </si>
+  <si>
+    <t>2021-04-01</t>
+  </si>
+  <si>
+    <t>large company</t>
+  </si>
+  <si>
+    <t>10194822</t>
+  </si>
+  <si>
     <t>2021-03-22</t>
   </si>
   <si>
+    <t>example company</t>
+  </si>
+  <si>
+    <t>10191882</t>
+  </si>
+  <si>
+    <t>2021-02-22</t>
+  </si>
+  <si>
+    <t>different company</t>
+  </si>
+  <si>
+    <t>United States of America</t>
+  </si>
+  <si>
+    <t>10195882</t>
+  </si>
+  <si>
+    <t>2021-01-22</t>
+  </si>
+  <si>
     <t>random company</t>
   </si>
   <si>
@@ -43,6 +88,9 @@
     <t>10194882</t>
   </si>
   <si>
+    <t>2020-12-22</t>
+  </si>
+  <si>
     <t>new company</t>
   </si>
   <si>
@@ -52,22 +100,28 @@
     <t>10131882</t>
   </si>
   <si>
-    <t>example company</t>
-  </si>
-  <si>
-    <t>United Kingdom</t>
-  </si>
-  <si>
-    <t>10191882</t>
-  </si>
-  <si>
-    <t>different company</t>
-  </si>
-  <si>
-    <t>United States of America</t>
-  </si>
-  <si>
-    <t>10195882</t>
+    <t>2020-11-22</t>
+  </si>
+  <si>
+    <t>2020-10-22</t>
+  </si>
+  <si>
+    <t>2020-09-22</t>
+  </si>
+  <si>
+    <t>2020-08-22</t>
+  </si>
+  <si>
+    <t>2020-07-22</t>
+  </si>
+  <si>
+    <t>2020-06-22</t>
+  </si>
+  <si>
+    <t>2020-05-22</t>
+  </si>
+  <si>
+    <t>2020-03-22</t>
   </si>
 </sst>
 </file>
@@ -399,7 +453,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -430,13 +484,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>2800</v>
+        <v>30000</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -444,152 +495,262 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C3">
-        <v>4500</v>
+        <v>9500</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C4">
-        <v>950</v>
+        <v>22500</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C5">
-        <v>99500</v>
+        <v>24500</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C6">
-        <v>16000</v>
+        <v>1000</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C7">
-        <v>24500</v>
+        <v>950</v>
       </c>
       <c r="D7" t="s">
         <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C8">
-        <v>3950</v>
+        <v>99500</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C9">
-        <v>2500</v>
+        <v>24500</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="C10">
-        <v>15000</v>
+        <v>3950</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C11">
         <v>30000</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12">
+        <v>4500</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13">
+        <v>15000</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14">
+        <v>2500</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" t="s">
         <v>17</v>
+      </c>
+      <c r="C15">
+        <v>16000</v>
+      </c>
+      <c r="D15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16">
+        <v>2800</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17">
+        <v>100</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18">
+        <v>950</v>
+      </c>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/static/purchases/purchaseHistory.xlsx
+++ b/static/purchases/purchaseHistory.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="32">
   <si>
     <t>Date</t>
   </si>
@@ -31,25 +31,13 @@
     <t>Vat Number</t>
   </si>
   <si>
-    <t>2021-04-30</t>
-  </si>
-  <si>
-    <t>Owain</t>
+    <t>2021-04-01</t>
+  </si>
+  <si>
+    <t>large company</t>
   </si>
   <si>
     <t>United Kingdom</t>
-  </si>
-  <si>
-    <t>2021-04-29</t>
-  </si>
-  <si>
-    <t>2021-04-28</t>
-  </si>
-  <si>
-    <t>2021-04-01</t>
-  </si>
-  <si>
-    <t>large company</t>
   </si>
   <si>
     <t>10194822</t>
@@ -453,7 +441,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -484,83 +472,95 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>30000</v>
+        <v>1000</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
       </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C3">
-        <v>9500</v>
+        <v>950</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
       </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C4">
-        <v>22500</v>
+        <v>99500</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C5">
         <v>24500</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C6">
-        <v>1000</v>
+        <v>3950</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
         <v>13</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7">
+        <v>30000</v>
+      </c>
+      <c r="D7" t="s">
         <v>14</v>
-      </c>
-      <c r="C7">
-        <v>950</v>
-      </c>
-      <c r="D7" t="s">
-        <v>7</v>
       </c>
       <c r="E7" t="s">
         <v>15</v>
@@ -568,53 +568,53 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C8">
-        <v>99500</v>
+        <v>4500</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E8" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C9">
-        <v>24500</v>
+        <v>15000</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C10">
-        <v>3950</v>
+        <v>2500</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -622,16 +622,16 @@
         <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C11">
-        <v>30000</v>
+        <v>16000</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -639,16 +639,16 @@
         <v>29</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C12">
-        <v>4500</v>
+        <v>2800</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E12" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -656,16 +656,16 @@
         <v>30</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C13">
-        <v>15000</v>
+        <v>100</v>
       </c>
       <c r="D13" t="s">
         <v>7</v>
       </c>
       <c r="E13" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -673,84 +673,16 @@
         <v>31</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="C14">
-        <v>2500</v>
+        <v>950</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15">
-        <v>16000</v>
-      </c>
-      <c r="D15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16">
-        <v>2800</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" t="s">
         <v>11</v>
-      </c>
-      <c r="C17">
-        <v>100</v>
-      </c>
-      <c r="D17" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18">
-        <v>950</v>
-      </c>
-      <c r="D18" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/static/purchases/purchaseHistory.xlsx
+++ b/static/purchases/purchaseHistory.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="34">
   <si>
     <t>Date</t>
   </si>
@@ -31,25 +31,31 @@
     <t>Vat Number</t>
   </si>
   <si>
+    <t>2021-05-04</t>
+  </si>
+  <si>
+    <t>Company 1</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
     <t>2021-04-01</t>
   </si>
   <si>
+    <t>example company</t>
+  </si>
+  <si>
+    <t>10191882</t>
+  </si>
+  <si>
     <t>large company</t>
   </si>
   <si>
-    <t>United Kingdom</t>
-  </si>
-  <si>
     <t>10194822</t>
   </si>
   <si>
     <t>2021-03-22</t>
-  </si>
-  <si>
-    <t>example company</t>
-  </si>
-  <si>
-    <t>10191882</t>
   </si>
   <si>
     <t>2021-02-22</t>
@@ -441,7 +447,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -472,115 +478,112 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>1000</v>
+        <v>1650</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
       <c r="C3">
-        <v>950</v>
+        <v>1000</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4">
+        <v>1000</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
         <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4">
-        <v>99500</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C5">
-        <v>24500</v>
+        <v>950</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C6">
-        <v>3950</v>
+        <v>99500</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C7">
-        <v>30000</v>
+        <v>24500</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8">
+        <v>3950</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" t="s">
         <v>25</v>
-      </c>
-      <c r="B8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8">
-        <v>4500</v>
-      </c>
-      <c r="D8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -588,16 +591,16 @@
         <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C9">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="D9" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -605,16 +608,16 @@
         <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C10">
-        <v>2500</v>
+        <v>4500</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -622,16 +625,16 @@
         <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C11">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E11" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -639,16 +642,16 @@
         <v>29</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C12">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E12" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -656,16 +659,16 @@
         <v>30</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C13">
-        <v>100</v>
+        <v>16000</v>
       </c>
       <c r="D13" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E13" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -673,16 +676,50 @@
         <v>31</v>
       </c>
       <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14">
+        <v>2800</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15">
+        <v>100</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16">
+        <v>950</v>
+      </c>
+      <c r="D16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" t="s">
         <v>10</v>
-      </c>
-      <c r="C14">
-        <v>950</v>
-      </c>
-      <c r="D14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
